--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H2">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.37814633333333</v>
+        <v>53.62555</v>
       </c>
       <c r="N2">
-        <v>265.134439</v>
+        <v>160.87665</v>
       </c>
       <c r="O2">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="P2">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="Q2">
-        <v>2281.572494113756</v>
+        <v>2.142215596216666</v>
       </c>
       <c r="R2">
-        <v>20534.1524470238</v>
+        <v>19.27994036595</v>
       </c>
       <c r="S2">
-        <v>0.5526621143493009</v>
+        <v>0.005464482406053566</v>
       </c>
       <c r="T2">
-        <v>0.5526621143493009</v>
+        <v>0.005464482406053566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H3">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.600026</v>
       </c>
       <c r="O3">
-        <v>0.07161325864989523</v>
+        <v>0.09826080067350991</v>
       </c>
       <c r="P3">
-        <v>0.07161325864989525</v>
+        <v>0.0982608006735099</v>
       </c>
       <c r="Q3">
-        <v>228.9023179833336</v>
+        <v>0.3542029906575556</v>
       </c>
       <c r="R3">
-        <v>2060.120861850002</v>
+        <v>3.187826915918</v>
       </c>
       <c r="S3">
-        <v>0.05544668835309764</v>
+        <v>0.0009035206419176894</v>
       </c>
       <c r="T3">
-        <v>0.05544668835309765</v>
+        <v>0.0009035206419176892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H4">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.56849866666667</v>
+        <v>27.74391433333333</v>
       </c>
       <c r="N4">
-        <v>79.705496</v>
+        <v>83.23174299999999</v>
       </c>
       <c r="O4">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="P4">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="Q4">
-        <v>685.8930435034659</v>
+        <v>1.108304641816555</v>
       </c>
       <c r="R4">
-        <v>6173.037391531193</v>
+        <v>9.974741776348999</v>
       </c>
       <c r="S4">
-        <v>0.1661429126701256</v>
+        <v>0.00282712497586612</v>
       </c>
       <c r="T4">
-        <v>0.1661429126701256</v>
+        <v>0.002827124975866119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.155583</v>
       </c>
       <c r="I5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.37814633333333</v>
+        <v>53.62555</v>
       </c>
       <c r="N5">
-        <v>265.134439</v>
+        <v>160.87665</v>
       </c>
       <c r="O5">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="P5">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="Q5">
-        <v>240.2584359358819</v>
+        <v>145.7825413152167</v>
       </c>
       <c r="R5">
-        <v>2162.325923422937</v>
+        <v>1312.04287183695</v>
       </c>
       <c r="S5">
-        <v>0.05819746492261148</v>
+        <v>0.3718701952939226</v>
       </c>
       <c r="T5">
-        <v>0.05819746492261148</v>
+        <v>0.3718701952939226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.155583</v>
       </c>
       <c r="I6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>26.600026</v>
       </c>
       <c r="O6">
-        <v>0.07161325864989523</v>
+        <v>0.09826080067350991</v>
       </c>
       <c r="P6">
-        <v>0.07161325864989525</v>
+        <v>0.0982608006735099</v>
       </c>
       <c r="Q6">
         <v>24.10430220501755</v>
@@ -818,10 +818,10 @@
         <v>216.938719845158</v>
       </c>
       <c r="S6">
-        <v>0.005838751411979163</v>
+        <v>0.06148659151867856</v>
       </c>
       <c r="T6">
-        <v>0.005838751411979164</v>
+        <v>0.06148659151867855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.155583</v>
       </c>
       <c r="I7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.56849866666667</v>
+        <v>27.74391433333333</v>
       </c>
       <c r="N7">
-        <v>79.705496</v>
+        <v>83.23174299999999</v>
       </c>
       <c r="O7">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="P7">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="Q7">
-        <v>72.22719868712977</v>
+        <v>75.42259869679656</v>
       </c>
       <c r="R7">
-        <v>650.0447881841679</v>
+        <v>678.803388271169</v>
       </c>
       <c r="S7">
-        <v>0.0174954933244238</v>
+        <v>0.192392149662885</v>
       </c>
       <c r="T7">
-        <v>0.0174954933244238</v>
+        <v>0.192392149662885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H8">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.37814633333333</v>
+        <v>53.62555</v>
       </c>
       <c r="N8">
-        <v>265.134439</v>
+        <v>160.87665</v>
       </c>
       <c r="O8">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="P8">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="Q8">
-        <v>424.9788074218485</v>
+        <v>85.04813815464999</v>
       </c>
       <c r="R8">
-        <v>3824.809266796636</v>
+        <v>765.4332433918498</v>
       </c>
       <c r="S8">
-        <v>0.1029420221664422</v>
+        <v>0.2169455097957811</v>
       </c>
       <c r="T8">
-        <v>0.1029420221664422</v>
+        <v>0.2169455097957811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H9">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>26.600026</v>
       </c>
       <c r="O9">
-        <v>0.07161325864989523</v>
+        <v>0.09826080067350991</v>
       </c>
       <c r="P9">
-        <v>0.07161325864989525</v>
+        <v>0.0982608006735099</v>
       </c>
       <c r="Q9">
-        <v>42.63666149711378</v>
+        <v>14.06221901167933</v>
       </c>
       <c r="R9">
-        <v>383.7299534740241</v>
+        <v>126.559971105114</v>
       </c>
       <c r="S9">
-        <v>0.01032781888481843</v>
+        <v>0.03587068851291367</v>
       </c>
       <c r="T9">
-        <v>0.01032781888481843</v>
+        <v>0.03587068851291366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H10">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.56849866666667</v>
+        <v>27.74391433333333</v>
       </c>
       <c r="N10">
-        <v>79.705496</v>
+        <v>83.23174299999999</v>
       </c>
       <c r="O10">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="P10">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="Q10">
-        <v>127.7583808531449</v>
+        <v>44.00082160783633</v>
       </c>
       <c r="R10">
-        <v>1149.825427678304</v>
+        <v>396.0073944705269</v>
       </c>
       <c r="S10">
-        <v>0.03094673391720066</v>
+        <v>0.1122397371919818</v>
       </c>
       <c r="T10">
-        <v>0.03094673391720066</v>
+        <v>0.1122397371919818</v>
       </c>
     </row>
   </sheetData>
